--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N2">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O2">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P2">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q2">
-        <v>117.9371261248882</v>
+        <v>135.23415041113</v>
       </c>
       <c r="R2">
-        <v>117.9371261248882</v>
+        <v>811.4049024667798</v>
       </c>
       <c r="S2">
-        <v>0.0659760273736702</v>
+        <v>0.06375597819388729</v>
       </c>
       <c r="T2">
-        <v>0.0659760273736702</v>
+        <v>0.05296670568613132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N3">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P3">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q3">
-        <v>648.7935838910191</v>
+        <v>753.7558946945421</v>
       </c>
       <c r="R3">
-        <v>648.7935838910191</v>
+        <v>6783.803052250879</v>
       </c>
       <c r="S3">
-        <v>0.3629461277980251</v>
+        <v>0.3553573135155668</v>
       </c>
       <c r="T3">
-        <v>0.3629461277980251</v>
+        <v>0.4428315611711042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N4">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O4">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P4">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q4">
-        <v>10.98405250883819</v>
+        <v>12.35582806564333</v>
       </c>
       <c r="R4">
-        <v>10.98405250883819</v>
+        <v>111.20245259079</v>
       </c>
       <c r="S4">
-        <v>0.006144665151748255</v>
+        <v>0.005825140338632563</v>
       </c>
       <c r="T4">
-        <v>0.006144665151748255</v>
+        <v>0.007259048546595997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N5">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O5">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P5">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q5">
-        <v>15.76036730262267</v>
+        <v>19.34092307685777</v>
       </c>
       <c r="R5">
-        <v>15.76036730262267</v>
+        <v>174.06830769172</v>
       </c>
       <c r="S5">
-        <v>0.008816616605324424</v>
+        <v>0.009118255013167957</v>
       </c>
       <c r="T5">
-        <v>0.008816616605324424</v>
+        <v>0.01136279161582679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N6">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O6">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P6">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q6">
-        <v>75.67997324098478</v>
+        <v>86.69671552036887</v>
       </c>
       <c r="R6">
-        <v>75.67997324098478</v>
+        <v>780.2704396833199</v>
       </c>
       <c r="S6">
-        <v>0.04233665979700482</v>
+        <v>0.04087306266497143</v>
       </c>
       <c r="T6">
-        <v>0.04233665979700482</v>
+        <v>0.05093431726706474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J7">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N7">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O7">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P7">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q7">
-        <v>455.4407104364399</v>
+        <v>572.0900334236483</v>
       </c>
       <c r="R7">
-        <v>455.4407104364399</v>
+        <v>3432.54020054189</v>
       </c>
       <c r="S7">
-        <v>0.2547812530807237</v>
+        <v>0.269711160864412</v>
       </c>
       <c r="T7">
-        <v>0.2547812530807237</v>
+        <v>0.2240685827817759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N8">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O8">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P8">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q8">
-        <v>5.305814671001692</v>
+        <v>1.178072930516</v>
       </c>
       <c r="R8">
-        <v>5.305814671001692</v>
+        <v>7.068437583096</v>
       </c>
       <c r="S8">
-        <v>0.002968162659847588</v>
+        <v>0.0005554010717000474</v>
       </c>
       <c r="T8">
-        <v>0.002968162659847588</v>
+        <v>0.0004614118696922261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N9">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P9">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q9">
-        <v>29.18825164702987</v>
+        <v>6.566236509468445</v>
       </c>
       <c r="R9">
-        <v>29.18825164702987</v>
+        <v>59.096128585216</v>
       </c>
       <c r="S9">
-        <v>0.01632840270853126</v>
+        <v>0.003095644335701186</v>
       </c>
       <c r="T9">
-        <v>0.01632840270853126</v>
+        <v>0.003857663714437639</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N10">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O10">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P10">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q10">
-        <v>0.4941560716574724</v>
+        <v>0.1076360263586667</v>
       </c>
       <c r="R10">
-        <v>0.4941560716574724</v>
+        <v>0.9687242372280001</v>
       </c>
       <c r="S10">
-        <v>0.0002764392823682573</v>
+        <v>5.074487567331987E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002764392823682573</v>
+        <v>6.323616163556302E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N11">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O11">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P11">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q11">
-        <v>0.7090353207867776</v>
+        <v>0.1684856810115556</v>
       </c>
       <c r="R11">
-        <v>0.7090353207867776</v>
+        <v>1.516371129104</v>
       </c>
       <c r="S11">
-        <v>0.0003966463765073521</v>
+        <v>7.943237245842086E-05</v>
       </c>
       <c r="T11">
-        <v>0.0003966463765073521</v>
+        <v>9.898533156753577E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H12">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I12">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J12">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N12">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O12">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P12">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q12">
-        <v>3.404728650906944</v>
+        <v>0.7552460189137779</v>
       </c>
       <c r="R12">
-        <v>3.404728650906944</v>
+        <v>6.797214170224001</v>
       </c>
       <c r="S12">
-        <v>0.001904662917038405</v>
+        <v>0.0003560598307934803</v>
       </c>
       <c r="T12">
-        <v>0.001904662917038405</v>
+        <v>0.0004437070090966032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H13">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I13">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J13">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N13">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O13">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P13">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q13">
-        <v>20.4895954531416</v>
+        <v>4.983680380624667</v>
       </c>
       <c r="R13">
-        <v>20.4895954531416</v>
+        <v>29.902082283748</v>
       </c>
       <c r="S13">
-        <v>0.01146222699254518</v>
+        <v>0.0023495501447411</v>
       </c>
       <c r="T13">
-        <v>0.01146222699254518</v>
+        <v>0.001951941363566762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N14">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O14">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P14">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q14">
-        <v>6.811488357579335</v>
+        <v>5.613061556325999</v>
       </c>
       <c r="R14">
-        <v>6.811488357579335</v>
+        <v>33.67836933795599</v>
       </c>
       <c r="S14">
-        <v>0.003810462041098139</v>
+        <v>0.002646271145994603</v>
       </c>
       <c r="T14">
-        <v>0.003810462041098139</v>
+        <v>0.002198448975707757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N15">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O15">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P15">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q15">
-        <v>37.47123648295563</v>
+        <v>31.28557559241955</v>
       </c>
       <c r="R15">
-        <v>37.47123648295563</v>
+        <v>281.570180331776</v>
       </c>
       <c r="S15">
-        <v>0.02096204482129604</v>
+        <v>0.01474954713132395</v>
       </c>
       <c r="T15">
-        <v>0.02096204482129604</v>
+        <v>0.01838027454145767</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N16">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O16">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P16">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q16">
-        <v>0.6343867129996369</v>
+        <v>0.5128440064953332</v>
       </c>
       <c r="R16">
-        <v>0.6343867129996369</v>
+        <v>4.615596058457999</v>
       </c>
       <c r="S16">
-        <v>0.000354886680026742</v>
+        <v>0.0002417796924488332</v>
       </c>
       <c r="T16">
-        <v>0.000354886680026742</v>
+        <v>0.0003012958354715163</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H17">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I17">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J17">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N17">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O17">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P17">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q17">
-        <v>0.9102439742283498</v>
+        <v>0.8027690598604442</v>
       </c>
       <c r="R17">
-        <v>0.9102439742283498</v>
+        <v>7.224921538743999</v>
       </c>
       <c r="S17">
-        <v>0.0005092059077038571</v>
+        <v>0.0003784645115127486</v>
       </c>
       <c r="T17">
-        <v>0.0005092059077038571</v>
+        <v>0.000471626793952865</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H18">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I18">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J18">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N18">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O18">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P18">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q18">
-        <v>4.370915873318872</v>
+        <v>3.598454972118222</v>
       </c>
       <c r="R18">
-        <v>4.370915873318872</v>
+        <v>32.38609474906399</v>
       </c>
       <c r="S18">
-        <v>0.002445164426007154</v>
+        <v>0.001696487285471738</v>
       </c>
       <c r="T18">
-        <v>0.002445164426007154</v>
+        <v>0.002114092167402287</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H19">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I19">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J19">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N19">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O19">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P19">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q19">
-        <v>26.30409268596559</v>
+        <v>23.74530814594633</v>
       </c>
       <c r="R19">
-        <v>26.30409268596559</v>
+        <v>142.471848875678</v>
       </c>
       <c r="S19">
-        <v>0.0147149552995814</v>
+        <v>0.01119469707731082</v>
       </c>
       <c r="T19">
-        <v>0.0147149552995814</v>
+        <v>0.009300245124247288</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H20">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I20">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J20">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N20">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O20">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P20">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q20">
-        <v>29.10469539561026</v>
+        <v>8.67770517238</v>
       </c>
       <c r="R20">
-        <v>29.10469539561026</v>
+        <v>52.06623103427999</v>
       </c>
       <c r="S20">
-        <v>0.01628165992521921</v>
+        <v>0.004091093707183215</v>
       </c>
       <c r="T20">
-        <v>0.01628165992521921</v>
+        <v>0.003398767652247126</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H21">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I21">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J21">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N21">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O21">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P21">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q21">
-        <v>160.1102235930232</v>
+        <v>48.36700941454222</v>
       </c>
       <c r="R21">
-        <v>160.1102235930232</v>
+        <v>435.30308473088</v>
       </c>
       <c r="S21">
-        <v>0.08956837292602607</v>
+        <v>0.02280256864233092</v>
       </c>
       <c r="T21">
-        <v>0.08956837292602607</v>
+        <v>0.02841561630094979</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H22">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I22">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J22">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N22">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O22">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P22">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q22">
-        <v>2.710660442417384</v>
+        <v>0.7928487943933333</v>
       </c>
       <c r="R22">
-        <v>2.710660442417384</v>
+        <v>7.13563914954</v>
       </c>
       <c r="S22">
-        <v>0.001516389396840781</v>
+        <v>0.0003737876142432654</v>
       </c>
       <c r="T22">
-        <v>0.001516389396840781</v>
+        <v>0.0004657986383457863</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H23">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I23">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J23">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N23">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O23">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P23">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q23">
-        <v>3.889366349151434</v>
+        <v>1.241068381857778</v>
       </c>
       <c r="R23">
-        <v>3.889366349151434</v>
+        <v>11.16961543672</v>
       </c>
       <c r="S23">
-        <v>0.002175777459984211</v>
+        <v>0.0005851002017633506</v>
       </c>
       <c r="T23">
-        <v>0.002175777459984211</v>
+        <v>0.0007291276299482787</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H24">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I24">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J24">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N24">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O24">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P24">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q24">
-        <v>18.67641379012691</v>
+        <v>5.563154975368889</v>
       </c>
       <c r="R24">
-        <v>18.67641379012691</v>
+        <v>50.06839477832</v>
       </c>
       <c r="S24">
-        <v>0.01044790243705434</v>
+        <v>0.002622742748193014</v>
       </c>
       <c r="T24">
-        <v>0.01044790243705434</v>
+        <v>0.003268353349034497</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.58338</v>
+      </c>
+      <c r="I25">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J25">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>42.6300515</v>
+      </c>
+      <c r="N25">
+        <v>85.260103</v>
+      </c>
+      <c r="O25">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P25">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q25">
+        <v>36.70987414802334</v>
+      </c>
+      <c r="R25">
+        <v>220.25924488814</v>
+      </c>
+      <c r="S25">
+        <v>0.0173068261867758</v>
+      </c>
+      <c r="T25">
+        <v>0.01437803316589806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.077153</v>
+      </c>
+      <c r="N26">
+        <v>20.154306</v>
+      </c>
+      <c r="O26">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P26">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q26">
+        <v>30.9068952955545</v>
+      </c>
+      <c r="R26">
+        <v>123.627581182218</v>
+      </c>
+      <c r="S26">
+        <v>0.01457101875904531</v>
+      </c>
+      <c r="T26">
+        <v>0.008070133280264397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0670265</v>
+      </c>
+      <c r="H27">
+        <v>6.134053</v>
+      </c>
+      <c r="I27">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J27">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N27">
+        <v>168.501376</v>
+      </c>
+      <c r="O27">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P27">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q27">
+        <v>172.2660618261546</v>
+      </c>
+      <c r="R27">
+        <v>1033.596370956928</v>
+      </c>
+      <c r="S27">
+        <v>0.08121462846437373</v>
+      </c>
+      <c r="T27">
+        <v>0.0674708701072587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0670265</v>
+      </c>
+      <c r="H28">
+        <v>6.134053</v>
+      </c>
+      <c r="I28">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J28">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N28">
+        <v>2.762133</v>
+      </c>
+      <c r="O28">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P28">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q28">
+        <v>2.8238450358415</v>
+      </c>
+      <c r="R28">
+        <v>16.943070215049</v>
+      </c>
+      <c r="S28">
+        <v>0.001331298359036463</v>
+      </c>
+      <c r="T28">
+        <v>0.001106005905031736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0670265</v>
+      </c>
+      <c r="H29">
+        <v>6.134053</v>
+      </c>
+      <c r="I29">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J29">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N29">
+        <v>4.323644</v>
+      </c>
+      <c r="O29">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P29">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q29">
+        <v>4.420243574855332</v>
+      </c>
+      <c r="R29">
+        <v>26.521461449132</v>
+      </c>
+      <c r="S29">
+        <v>0.002083918537687305</v>
+      </c>
+      <c r="T29">
+        <v>0.001731261961409908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="N25">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="O25">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="P25">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="Q25">
-        <v>112.3943204617026</v>
-      </c>
-      <c r="R25">
-        <v>112.3943204617026</v>
-      </c>
-      <c r="S25">
-        <v>0.06287528793582753</v>
-      </c>
-      <c r="T25">
-        <v>0.06287528793582753</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0670265</v>
+      </c>
+      <c r="H30">
+        <v>6.134053</v>
+      </c>
+      <c r="I30">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J30">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N30">
+        <v>19.380964</v>
+      </c>
+      <c r="O30">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P30">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q30">
+        <v>19.81397672784867</v>
+      </c>
+      <c r="R30">
+        <v>118.883860367092</v>
+      </c>
+      <c r="S30">
+        <v>0.009341275590185107</v>
+      </c>
+      <c r="T30">
+        <v>0.007760473745908502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0670265</v>
+      </c>
+      <c r="H31">
+        <v>6.134053</v>
+      </c>
+      <c r="I31">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J31">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>42.6300515</v>
+      </c>
+      <c r="N31">
+        <v>85.260103</v>
+      </c>
+      <c r="O31">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P31">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q31">
+        <v>130.7474976468648</v>
+      </c>
+      <c r="R31">
+        <v>522.989990587459</v>
+      </c>
+      <c r="S31">
+        <v>0.0616407511234143</v>
+      </c>
+      <c r="T31">
+        <v>0.03413962230696857</v>
       </c>
     </row>
   </sheetData>
